--- a/csv/students.xlsx
+++ b/csv/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8128k\Documents\repos\roulette-for-festival\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB0A78E2-57E5-4918-B495-A4884670BE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33CA103-74C9-4D40-9EB3-C473E15F6F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C318BDAF-A7DA-4BD6-A9CA-A865BDBB82F7}"/>
   </bookViews>
@@ -394,667 +394,3492 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A5B959-7F27-4F2E-B5BF-7804DC8FFCB5}">
-  <dimension ref="A1:A131"/>
+  <dimension ref="A1:T240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1">
+        <v>18101</v>
+      </c>
+      <c r="B1">
+        <v>18201</v>
+      </c>
+      <c r="C1">
+        <v>18301</v>
+      </c>
+      <c r="D1">
+        <v>18401</v>
+      </c>
+      <c r="E1">
+        <v>18501</v>
+      </c>
+      <c r="F1">
+        <v>19101</v>
+      </c>
+      <c r="G1">
+        <v>19201</v>
+      </c>
+      <c r="H1">
+        <v>19301</v>
+      </c>
+      <c r="I1">
         <v>19401</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J1">
+        <v>19501</v>
+      </c>
+      <c r="K1">
+        <v>20101</v>
+      </c>
+      <c r="L1">
+        <v>20201</v>
+      </c>
+      <c r="M1">
+        <v>20301</v>
+      </c>
+      <c r="N1">
+        <v>20401</v>
+      </c>
+      <c r="O1">
+        <v>20501</v>
+      </c>
+      <c r="P1">
+        <v>21101</v>
+      </c>
+      <c r="Q1">
+        <v>21201</v>
+      </c>
+      <c r="R1">
+        <v>21301</v>
+      </c>
+      <c r="S1">
+        <v>21401</v>
+      </c>
+      <c r="T1">
+        <v>21501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2">
+        <v>18102</v>
+      </c>
+      <c r="B2">
+        <v>18202</v>
+      </c>
+      <c r="C2">
+        <v>18302</v>
+      </c>
+      <c r="D2">
+        <v>18402</v>
+      </c>
+      <c r="E2">
+        <v>18502</v>
+      </c>
+      <c r="F2">
+        <v>19102</v>
+      </c>
+      <c r="G2">
+        <v>19202</v>
+      </c>
+      <c r="H2">
+        <v>19302</v>
+      </c>
+      <c r="I2">
         <v>19402</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J2">
+        <v>19502</v>
+      </c>
+      <c r="K2">
+        <v>20102</v>
+      </c>
+      <c r="L2">
+        <v>20202</v>
+      </c>
+      <c r="M2">
+        <v>20302</v>
+      </c>
+      <c r="N2">
+        <v>20402</v>
+      </c>
+      <c r="O2">
+        <v>20502</v>
+      </c>
+      <c r="P2">
+        <v>21102</v>
+      </c>
+      <c r="Q2">
+        <v>21202</v>
+      </c>
+      <c r="R2">
+        <v>21302</v>
+      </c>
+      <c r="S2">
+        <v>21402</v>
+      </c>
+      <c r="T2">
+        <v>21502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3">
+        <v>18103</v>
+      </c>
+      <c r="B3">
+        <v>18203</v>
+      </c>
+      <c r="C3">
+        <v>18303</v>
+      </c>
+      <c r="D3">
+        <v>18403</v>
+      </c>
+      <c r="E3">
+        <v>18503</v>
+      </c>
+      <c r="F3">
+        <v>19103</v>
+      </c>
+      <c r="G3">
+        <v>19203</v>
+      </c>
+      <c r="H3">
+        <v>19303</v>
+      </c>
+      <c r="I3">
         <v>19403</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J3">
+        <v>19503</v>
+      </c>
+      <c r="K3">
+        <v>20103</v>
+      </c>
+      <c r="L3">
+        <v>20203</v>
+      </c>
+      <c r="M3">
+        <v>20303</v>
+      </c>
+      <c r="N3">
+        <v>20403</v>
+      </c>
+      <c r="O3">
+        <v>20503</v>
+      </c>
+      <c r="P3">
+        <v>21103</v>
+      </c>
+      <c r="Q3">
+        <v>21203</v>
+      </c>
+      <c r="R3">
+        <v>21303</v>
+      </c>
+      <c r="S3">
+        <v>21403</v>
+      </c>
+      <c r="T3">
+        <v>21503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
+        <v>18104</v>
+      </c>
+      <c r="B4">
+        <v>18204</v>
+      </c>
+      <c r="C4">
+        <v>18304</v>
+      </c>
+      <c r="D4">
+        <v>18404</v>
+      </c>
+      <c r="E4">
+        <v>18504</v>
+      </c>
+      <c r="F4">
+        <v>19104</v>
+      </c>
+      <c r="G4">
+        <v>19204</v>
+      </c>
+      <c r="H4">
+        <v>19304</v>
+      </c>
+      <c r="I4">
         <v>19404</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J4">
+        <v>19504</v>
+      </c>
+      <c r="K4">
+        <v>20104</v>
+      </c>
+      <c r="L4">
+        <v>20204</v>
+      </c>
+      <c r="M4">
+        <v>20304</v>
+      </c>
+      <c r="N4">
+        <v>20404</v>
+      </c>
+      <c r="O4">
+        <v>20504</v>
+      </c>
+      <c r="P4">
+        <v>21104</v>
+      </c>
+      <c r="Q4">
+        <v>21204</v>
+      </c>
+      <c r="R4">
+        <v>21304</v>
+      </c>
+      <c r="S4">
+        <v>21404</v>
+      </c>
+      <c r="T4">
+        <v>21504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
+        <v>18105</v>
+      </c>
+      <c r="B5">
+        <v>18205</v>
+      </c>
+      <c r="C5">
+        <v>18305</v>
+      </c>
+      <c r="D5">
+        <v>18405</v>
+      </c>
+      <c r="E5">
+        <v>18505</v>
+      </c>
+      <c r="F5">
+        <v>19105</v>
+      </c>
+      <c r="G5">
+        <v>19205</v>
+      </c>
+      <c r="H5">
+        <v>19305</v>
+      </c>
+      <c r="I5">
         <v>19405</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J5">
+        <v>19505</v>
+      </c>
+      <c r="K5">
+        <v>20105</v>
+      </c>
+      <c r="L5">
+        <v>20205</v>
+      </c>
+      <c r="M5">
+        <v>20305</v>
+      </c>
+      <c r="N5">
+        <v>20405</v>
+      </c>
+      <c r="O5">
+        <v>20505</v>
+      </c>
+      <c r="P5">
+        <v>21105</v>
+      </c>
+      <c r="Q5">
+        <v>21205</v>
+      </c>
+      <c r="R5">
+        <v>21305</v>
+      </c>
+      <c r="S5">
+        <v>21405</v>
+      </c>
+      <c r="T5">
+        <v>21505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
+        <v>18106</v>
+      </c>
+      <c r="B6">
+        <v>18206</v>
+      </c>
+      <c r="C6">
+        <v>18306</v>
+      </c>
+      <c r="D6">
+        <v>18406</v>
+      </c>
+      <c r="E6">
+        <v>18506</v>
+      </c>
+      <c r="F6">
+        <v>19106</v>
+      </c>
+      <c r="G6">
+        <v>19206</v>
+      </c>
+      <c r="H6">
+        <v>19306</v>
+      </c>
+      <c r="I6">
         <v>19406</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J6">
+        <v>19506</v>
+      </c>
+      <c r="K6">
+        <v>20106</v>
+      </c>
+      <c r="L6">
+        <v>20206</v>
+      </c>
+      <c r="M6">
+        <v>20306</v>
+      </c>
+      <c r="N6">
+        <v>20406</v>
+      </c>
+      <c r="O6">
+        <v>20506</v>
+      </c>
+      <c r="P6">
+        <v>21106</v>
+      </c>
+      <c r="Q6">
+        <v>21206</v>
+      </c>
+      <c r="R6">
+        <v>21306</v>
+      </c>
+      <c r="S6">
+        <v>21406</v>
+      </c>
+      <c r="T6">
+        <v>21506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7">
+        <v>18107</v>
+      </c>
+      <c r="B7">
+        <v>18207</v>
+      </c>
+      <c r="C7">
+        <v>18307</v>
+      </c>
+      <c r="D7">
+        <v>18407</v>
+      </c>
+      <c r="E7">
+        <v>18507</v>
+      </c>
+      <c r="F7">
+        <v>19107</v>
+      </c>
+      <c r="G7">
+        <v>19207</v>
+      </c>
+      <c r="H7">
+        <v>19307</v>
+      </c>
+      <c r="I7">
         <v>19407</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J7">
+        <v>19507</v>
+      </c>
+      <c r="K7">
+        <v>20107</v>
+      </c>
+      <c r="L7">
+        <v>20207</v>
+      </c>
+      <c r="M7">
+        <v>20307</v>
+      </c>
+      <c r="N7">
+        <v>20407</v>
+      </c>
+      <c r="O7">
+        <v>20507</v>
+      </c>
+      <c r="P7">
+        <v>21107</v>
+      </c>
+      <c r="Q7">
+        <v>21207</v>
+      </c>
+      <c r="R7">
+        <v>21307</v>
+      </c>
+      <c r="S7">
+        <v>21407</v>
+      </c>
+      <c r="T7">
+        <v>21507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8">
+        <v>18108</v>
+      </c>
+      <c r="B8">
+        <v>18208</v>
+      </c>
+      <c r="C8">
+        <v>18308</v>
+      </c>
+      <c r="D8">
+        <v>18408</v>
+      </c>
+      <c r="E8">
+        <v>18508</v>
+      </c>
+      <c r="F8">
+        <v>19108</v>
+      </c>
+      <c r="G8">
+        <v>19208</v>
+      </c>
+      <c r="H8">
+        <v>19308</v>
+      </c>
+      <c r="I8">
         <v>19408</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J8">
+        <v>19508</v>
+      </c>
+      <c r="K8">
+        <v>20108</v>
+      </c>
+      <c r="L8">
+        <v>20208</v>
+      </c>
+      <c r="M8">
+        <v>20308</v>
+      </c>
+      <c r="N8">
+        <v>20408</v>
+      </c>
+      <c r="O8">
+        <v>20508</v>
+      </c>
+      <c r="P8">
+        <v>21108</v>
+      </c>
+      <c r="Q8">
+        <v>21208</v>
+      </c>
+      <c r="R8">
+        <v>21308</v>
+      </c>
+      <c r="S8">
+        <v>21408</v>
+      </c>
+      <c r="T8">
+        <v>21508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9">
+        <v>18109</v>
+      </c>
+      <c r="B9">
+        <v>18209</v>
+      </c>
+      <c r="C9">
+        <v>18309</v>
+      </c>
+      <c r="D9">
+        <v>18409</v>
+      </c>
+      <c r="E9">
+        <v>18509</v>
+      </c>
+      <c r="F9">
+        <v>19109</v>
+      </c>
+      <c r="G9">
+        <v>19209</v>
+      </c>
+      <c r="H9">
+        <v>19309</v>
+      </c>
+      <c r="I9">
         <v>19409</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J9">
+        <v>19509</v>
+      </c>
+      <c r="K9">
+        <v>20109</v>
+      </c>
+      <c r="L9">
+        <v>20209</v>
+      </c>
+      <c r="M9">
+        <v>20309</v>
+      </c>
+      <c r="N9">
+        <v>20409</v>
+      </c>
+      <c r="O9">
+        <v>20509</v>
+      </c>
+      <c r="P9">
+        <v>21109</v>
+      </c>
+      <c r="Q9">
+        <v>21209</v>
+      </c>
+      <c r="R9">
+        <v>21309</v>
+      </c>
+      <c r="S9">
+        <v>21409</v>
+      </c>
+      <c r="T9">
+        <v>21509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10">
+        <v>18110</v>
+      </c>
+      <c r="B10">
+        <v>18210</v>
+      </c>
+      <c r="C10">
+        <v>18310</v>
+      </c>
+      <c r="D10">
+        <v>18410</v>
+      </c>
+      <c r="E10">
+        <v>18510</v>
+      </c>
+      <c r="F10">
+        <v>19110</v>
+      </c>
+      <c r="G10">
+        <v>19210</v>
+      </c>
+      <c r="H10">
+        <v>19310</v>
+      </c>
+      <c r="I10">
         <v>19410</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J10">
+        <v>19510</v>
+      </c>
+      <c r="K10">
+        <v>20110</v>
+      </c>
+      <c r="L10">
+        <v>20210</v>
+      </c>
+      <c r="M10">
+        <v>20310</v>
+      </c>
+      <c r="N10">
+        <v>20410</v>
+      </c>
+      <c r="O10">
+        <v>20510</v>
+      </c>
+      <c r="P10">
+        <v>21110</v>
+      </c>
+      <c r="Q10">
+        <v>21210</v>
+      </c>
+      <c r="R10">
+        <v>21310</v>
+      </c>
+      <c r="S10">
+        <v>21410</v>
+      </c>
+      <c r="T10">
+        <v>21510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11">
+        <v>18111</v>
+      </c>
+      <c r="B11">
+        <v>18211</v>
+      </c>
+      <c r="C11">
+        <v>18311</v>
+      </c>
+      <c r="D11">
+        <v>18411</v>
+      </c>
+      <c r="E11">
+        <v>18511</v>
+      </c>
+      <c r="F11">
+        <v>19111</v>
+      </c>
+      <c r="G11">
+        <v>19211</v>
+      </c>
+      <c r="H11">
+        <v>19311</v>
+      </c>
+      <c r="I11">
         <v>19411</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J11">
+        <v>19511</v>
+      </c>
+      <c r="K11">
+        <v>20111</v>
+      </c>
+      <c r="L11">
+        <v>20211</v>
+      </c>
+      <c r="M11">
+        <v>20311</v>
+      </c>
+      <c r="N11">
+        <v>20411</v>
+      </c>
+      <c r="O11">
+        <v>20511</v>
+      </c>
+      <c r="P11">
+        <v>21111</v>
+      </c>
+      <c r="Q11">
+        <v>21211</v>
+      </c>
+      <c r="R11">
+        <v>21311</v>
+      </c>
+      <c r="S11">
+        <v>21411</v>
+      </c>
+      <c r="T11">
+        <v>21511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12">
+        <v>18112</v>
+      </c>
+      <c r="B12">
+        <v>18212</v>
+      </c>
+      <c r="C12">
+        <v>18312</v>
+      </c>
+      <c r="D12">
+        <v>18412</v>
+      </c>
+      <c r="E12">
+        <v>18512</v>
+      </c>
+      <c r="F12">
+        <v>19112</v>
+      </c>
+      <c r="G12">
+        <v>19212</v>
+      </c>
+      <c r="H12">
+        <v>19312</v>
+      </c>
+      <c r="I12">
         <v>19412</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J12">
+        <v>19512</v>
+      </c>
+      <c r="K12">
+        <v>20112</v>
+      </c>
+      <c r="L12">
+        <v>20212</v>
+      </c>
+      <c r="M12">
+        <v>20312</v>
+      </c>
+      <c r="N12">
+        <v>20412</v>
+      </c>
+      <c r="O12">
+        <v>20512</v>
+      </c>
+      <c r="P12">
+        <v>21112</v>
+      </c>
+      <c r="Q12">
+        <v>21212</v>
+      </c>
+      <c r="R12">
+        <v>21312</v>
+      </c>
+      <c r="S12">
+        <v>21412</v>
+      </c>
+      <c r="T12">
+        <v>21512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13">
+        <v>18113</v>
+      </c>
+      <c r="B13">
+        <v>18213</v>
+      </c>
+      <c r="C13">
+        <v>18313</v>
+      </c>
+      <c r="D13">
+        <v>18413</v>
+      </c>
+      <c r="E13">
+        <v>18513</v>
+      </c>
+      <c r="F13">
+        <v>19113</v>
+      </c>
+      <c r="G13">
+        <v>19213</v>
+      </c>
+      <c r="H13">
+        <v>19313</v>
+      </c>
+      <c r="I13">
         <v>19413</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J13">
+        <v>19513</v>
+      </c>
+      <c r="K13">
+        <v>20113</v>
+      </c>
+      <c r="L13">
+        <v>20213</v>
+      </c>
+      <c r="M13">
+        <v>20313</v>
+      </c>
+      <c r="N13">
+        <v>20413</v>
+      </c>
+      <c r="O13">
+        <v>20513</v>
+      </c>
+      <c r="P13">
+        <v>21113</v>
+      </c>
+      <c r="Q13">
+        <v>21213</v>
+      </c>
+      <c r="R13">
+        <v>21313</v>
+      </c>
+      <c r="S13">
+        <v>21413</v>
+      </c>
+      <c r="T13">
+        <v>21513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14">
+        <v>18114</v>
+      </c>
+      <c r="B14">
+        <v>18214</v>
+      </c>
+      <c r="C14">
+        <v>18314</v>
+      </c>
+      <c r="D14">
+        <v>18414</v>
+      </c>
+      <c r="E14">
+        <v>18514</v>
+      </c>
+      <c r="F14">
+        <v>19114</v>
+      </c>
+      <c r="G14">
+        <v>19214</v>
+      </c>
+      <c r="H14">
+        <v>19314</v>
+      </c>
+      <c r="I14">
         <v>19414</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J14">
+        <v>19514</v>
+      </c>
+      <c r="K14">
+        <v>20114</v>
+      </c>
+      <c r="L14">
+        <v>20214</v>
+      </c>
+      <c r="M14">
+        <v>20314</v>
+      </c>
+      <c r="N14">
+        <v>20414</v>
+      </c>
+      <c r="O14">
+        <v>20514</v>
+      </c>
+      <c r="P14">
+        <v>21114</v>
+      </c>
+      <c r="Q14">
+        <v>21214</v>
+      </c>
+      <c r="R14">
+        <v>21314</v>
+      </c>
+      <c r="S14">
+        <v>21414</v>
+      </c>
+      <c r="T14">
+        <v>21514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15">
+        <v>18115</v>
+      </c>
+      <c r="B15">
+        <v>18215</v>
+      </c>
+      <c r="C15">
+        <v>18315</v>
+      </c>
+      <c r="D15">
+        <v>18415</v>
+      </c>
+      <c r="E15">
+        <v>18515</v>
+      </c>
+      <c r="F15">
+        <v>19115</v>
+      </c>
+      <c r="G15">
+        <v>19215</v>
+      </c>
+      <c r="H15">
+        <v>19315</v>
+      </c>
+      <c r="I15">
         <v>19415</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J15">
+        <v>19515</v>
+      </c>
+      <c r="K15">
+        <v>20115</v>
+      </c>
+      <c r="L15">
+        <v>20215</v>
+      </c>
+      <c r="M15">
+        <v>20315</v>
+      </c>
+      <c r="N15">
+        <v>20415</v>
+      </c>
+      <c r="O15">
+        <v>20515</v>
+      </c>
+      <c r="P15">
+        <v>21115</v>
+      </c>
+      <c r="Q15">
+        <v>21215</v>
+      </c>
+      <c r="R15">
+        <v>21315</v>
+      </c>
+      <c r="S15">
+        <v>21415</v>
+      </c>
+      <c r="T15">
+        <v>21515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16">
+        <v>18116</v>
+      </c>
+      <c r="B16">
+        <v>18216</v>
+      </c>
+      <c r="C16">
+        <v>18316</v>
+      </c>
+      <c r="D16">
+        <v>18416</v>
+      </c>
+      <c r="E16">
+        <v>18516</v>
+      </c>
+      <c r="F16">
+        <v>19116</v>
+      </c>
+      <c r="G16">
+        <v>19216</v>
+      </c>
+      <c r="H16">
+        <v>19316</v>
+      </c>
+      <c r="I16">
         <v>19416</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J16">
+        <v>19516</v>
+      </c>
+      <c r="K16">
+        <v>20116</v>
+      </c>
+      <c r="L16">
+        <v>20216</v>
+      </c>
+      <c r="M16">
+        <v>20316</v>
+      </c>
+      <c r="N16">
+        <v>20416</v>
+      </c>
+      <c r="O16">
+        <v>20516</v>
+      </c>
+      <c r="P16">
+        <v>21116</v>
+      </c>
+      <c r="Q16">
+        <v>21216</v>
+      </c>
+      <c r="R16">
+        <v>21316</v>
+      </c>
+      <c r="S16">
+        <v>21416</v>
+      </c>
+      <c r="T16">
+        <v>21516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17">
+        <v>18117</v>
+      </c>
+      <c r="B17">
+        <v>18217</v>
+      </c>
+      <c r="C17">
+        <v>18317</v>
+      </c>
+      <c r="D17">
+        <v>18417</v>
+      </c>
+      <c r="E17">
+        <v>18517</v>
+      </c>
+      <c r="F17">
+        <v>19117</v>
+      </c>
+      <c r="G17">
+        <v>19217</v>
+      </c>
+      <c r="H17">
+        <v>19317</v>
+      </c>
+      <c r="I17">
         <v>19417</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J17">
+        <v>19517</v>
+      </c>
+      <c r="K17">
+        <v>20117</v>
+      </c>
+      <c r="L17">
+        <v>20217</v>
+      </c>
+      <c r="M17">
+        <v>20317</v>
+      </c>
+      <c r="N17">
+        <v>20417</v>
+      </c>
+      <c r="O17">
+        <v>20517</v>
+      </c>
+      <c r="P17">
+        <v>21117</v>
+      </c>
+      <c r="Q17">
+        <v>21217</v>
+      </c>
+      <c r="R17">
+        <v>21317</v>
+      </c>
+      <c r="S17">
+        <v>21417</v>
+      </c>
+      <c r="T17">
+        <v>21517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18">
+        <v>18118</v>
+      </c>
+      <c r="B18">
+        <v>18218</v>
+      </c>
+      <c r="C18">
+        <v>18318</v>
+      </c>
+      <c r="D18">
+        <v>18418</v>
+      </c>
+      <c r="E18">
+        <v>18518</v>
+      </c>
+      <c r="F18">
+        <v>19118</v>
+      </c>
+      <c r="G18">
+        <v>19218</v>
+      </c>
+      <c r="H18">
+        <v>19318</v>
+      </c>
+      <c r="I18">
         <v>19418</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J18">
+        <v>19518</v>
+      </c>
+      <c r="K18">
+        <v>20118</v>
+      </c>
+      <c r="L18">
+        <v>20218</v>
+      </c>
+      <c r="M18">
+        <v>20318</v>
+      </c>
+      <c r="N18">
+        <v>20418</v>
+      </c>
+      <c r="O18">
+        <v>20518</v>
+      </c>
+      <c r="P18">
+        <v>21118</v>
+      </c>
+      <c r="Q18">
+        <v>21218</v>
+      </c>
+      <c r="R18">
+        <v>21318</v>
+      </c>
+      <c r="S18">
+        <v>21418</v>
+      </c>
+      <c r="T18">
+        <v>21518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19">
+        <v>18119</v>
+      </c>
+      <c r="B19">
+        <v>18219</v>
+      </c>
+      <c r="C19">
+        <v>18319</v>
+      </c>
+      <c r="D19">
+        <v>18419</v>
+      </c>
+      <c r="E19">
+        <v>18519</v>
+      </c>
+      <c r="F19">
+        <v>19119</v>
+      </c>
+      <c r="G19">
+        <v>19219</v>
+      </c>
+      <c r="H19">
+        <v>19319</v>
+      </c>
+      <c r="I19">
         <v>19419</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J19">
+        <v>19519</v>
+      </c>
+      <c r="K19">
+        <v>20119</v>
+      </c>
+      <c r="L19">
+        <v>20219</v>
+      </c>
+      <c r="M19">
+        <v>20319</v>
+      </c>
+      <c r="N19">
+        <v>20419</v>
+      </c>
+      <c r="O19">
+        <v>20519</v>
+      </c>
+      <c r="P19">
+        <v>21119</v>
+      </c>
+      <c r="Q19">
+        <v>21219</v>
+      </c>
+      <c r="R19">
+        <v>21319</v>
+      </c>
+      <c r="S19">
+        <v>21419</v>
+      </c>
+      <c r="T19">
+        <v>21519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20">
+        <v>18120</v>
+      </c>
+      <c r="B20">
+        <v>18220</v>
+      </c>
+      <c r="C20">
+        <v>18320</v>
+      </c>
+      <c r="D20">
+        <v>18420</v>
+      </c>
+      <c r="E20">
+        <v>18520</v>
+      </c>
+      <c r="F20">
+        <v>19120</v>
+      </c>
+      <c r="G20">
+        <v>19220</v>
+      </c>
+      <c r="H20">
+        <v>19320</v>
+      </c>
+      <c r="I20">
         <v>19420</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J20">
+        <v>19520</v>
+      </c>
+      <c r="K20">
+        <v>20120</v>
+      </c>
+      <c r="L20">
+        <v>20220</v>
+      </c>
+      <c r="M20">
+        <v>20320</v>
+      </c>
+      <c r="N20">
+        <v>20420</v>
+      </c>
+      <c r="O20">
+        <v>20520</v>
+      </c>
+      <c r="P20">
+        <v>21120</v>
+      </c>
+      <c r="Q20">
+        <v>21220</v>
+      </c>
+      <c r="R20">
+        <v>21320</v>
+      </c>
+      <c r="S20">
+        <v>21420</v>
+      </c>
+      <c r="T20">
+        <v>21520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21">
+        <v>18121</v>
+      </c>
+      <c r="B21">
+        <v>18221</v>
+      </c>
+      <c r="C21">
+        <v>18321</v>
+      </c>
+      <c r="D21">
+        <v>18421</v>
+      </c>
+      <c r="E21">
+        <v>18521</v>
+      </c>
+      <c r="F21">
+        <v>19121</v>
+      </c>
+      <c r="G21">
+        <v>19221</v>
+      </c>
+      <c r="H21">
+        <v>19321</v>
+      </c>
+      <c r="I21">
         <v>19421</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J21">
+        <v>19521</v>
+      </c>
+      <c r="K21">
+        <v>20121</v>
+      </c>
+      <c r="L21">
+        <v>20221</v>
+      </c>
+      <c r="M21">
+        <v>20321</v>
+      </c>
+      <c r="N21">
+        <v>20421</v>
+      </c>
+      <c r="O21">
+        <v>20521</v>
+      </c>
+      <c r="P21">
+        <v>21121</v>
+      </c>
+      <c r="Q21">
+        <v>21221</v>
+      </c>
+      <c r="R21">
+        <v>21321</v>
+      </c>
+      <c r="S21">
+        <v>21421</v>
+      </c>
+      <c r="T21">
+        <v>21521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22">
+        <v>18122</v>
+      </c>
+      <c r="B22">
+        <v>18222</v>
+      </c>
+      <c r="C22">
+        <v>18322</v>
+      </c>
+      <c r="D22">
+        <v>18422</v>
+      </c>
+      <c r="E22">
+        <v>18522</v>
+      </c>
+      <c r="F22">
+        <v>19122</v>
+      </c>
+      <c r="G22">
+        <v>19222</v>
+      </c>
+      <c r="H22">
+        <v>19322</v>
+      </c>
+      <c r="I22">
         <v>19422</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J22">
+        <v>19522</v>
+      </c>
+      <c r="K22">
+        <v>20122</v>
+      </c>
+      <c r="L22">
+        <v>20222</v>
+      </c>
+      <c r="M22">
+        <v>20322</v>
+      </c>
+      <c r="N22">
+        <v>20422</v>
+      </c>
+      <c r="O22">
+        <v>20522</v>
+      </c>
+      <c r="P22">
+        <v>21122</v>
+      </c>
+      <c r="Q22">
+        <v>21222</v>
+      </c>
+      <c r="R22">
+        <v>21322</v>
+      </c>
+      <c r="S22">
+        <v>21422</v>
+      </c>
+      <c r="T22">
+        <v>21522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23">
+        <v>18123</v>
+      </c>
+      <c r="B23">
+        <v>18223</v>
+      </c>
+      <c r="C23">
+        <v>18323</v>
+      </c>
+      <c r="D23">
+        <v>18423</v>
+      </c>
+      <c r="E23">
+        <v>18523</v>
+      </c>
+      <c r="F23">
+        <v>19123</v>
+      </c>
+      <c r="G23">
+        <v>19223</v>
+      </c>
+      <c r="H23">
+        <v>19323</v>
+      </c>
+      <c r="I23">
         <v>19423</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J23">
+        <v>19523</v>
+      </c>
+      <c r="K23">
+        <v>20123</v>
+      </c>
+      <c r="L23">
+        <v>20223</v>
+      </c>
+      <c r="M23">
+        <v>20323</v>
+      </c>
+      <c r="N23">
+        <v>20423</v>
+      </c>
+      <c r="O23">
+        <v>20523</v>
+      </c>
+      <c r="P23">
+        <v>21123</v>
+      </c>
+      <c r="Q23">
+        <v>21223</v>
+      </c>
+      <c r="R23">
+        <v>21323</v>
+      </c>
+      <c r="S23">
+        <v>21423</v>
+      </c>
+      <c r="T23">
+        <v>21523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24">
+        <v>18124</v>
+      </c>
+      <c r="B24">
+        <v>18224</v>
+      </c>
+      <c r="C24">
+        <v>18324</v>
+      </c>
+      <c r="D24">
+        <v>18424</v>
+      </c>
+      <c r="E24">
+        <v>18524</v>
+      </c>
+      <c r="F24">
+        <v>19124</v>
+      </c>
+      <c r="G24">
+        <v>19224</v>
+      </c>
+      <c r="H24">
+        <v>19324</v>
+      </c>
+      <c r="I24">
         <v>19424</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J24">
+        <v>19524</v>
+      </c>
+      <c r="K24">
+        <v>20124</v>
+      </c>
+      <c r="L24">
+        <v>20224</v>
+      </c>
+      <c r="M24">
+        <v>20324</v>
+      </c>
+      <c r="N24">
+        <v>20424</v>
+      </c>
+      <c r="O24">
+        <v>20524</v>
+      </c>
+      <c r="P24">
+        <v>21124</v>
+      </c>
+      <c r="Q24">
+        <v>21224</v>
+      </c>
+      <c r="R24">
+        <v>21324</v>
+      </c>
+      <c r="S24">
+        <v>21424</v>
+      </c>
+      <c r="T24">
+        <v>21524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25">
+        <v>18125</v>
+      </c>
+      <c r="B25">
+        <v>18225</v>
+      </c>
+      <c r="C25">
+        <v>18325</v>
+      </c>
+      <c r="D25">
+        <v>18425</v>
+      </c>
+      <c r="E25">
+        <v>18525</v>
+      </c>
+      <c r="F25">
+        <v>19125</v>
+      </c>
+      <c r="G25">
+        <v>19225</v>
+      </c>
+      <c r="H25">
+        <v>19325</v>
+      </c>
+      <c r="I25">
         <v>19425</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J25">
+        <v>19525</v>
+      </c>
+      <c r="K25">
+        <v>20125</v>
+      </c>
+      <c r="L25">
+        <v>20225</v>
+      </c>
+      <c r="M25">
+        <v>20325</v>
+      </c>
+      <c r="N25">
+        <v>20425</v>
+      </c>
+      <c r="O25">
+        <v>20525</v>
+      </c>
+      <c r="P25">
+        <v>21125</v>
+      </c>
+      <c r="Q25">
+        <v>21225</v>
+      </c>
+      <c r="R25">
+        <v>21325</v>
+      </c>
+      <c r="S25">
+        <v>21425</v>
+      </c>
+      <c r="T25">
+        <v>21525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26">
+        <v>18126</v>
+      </c>
+      <c r="B26">
+        <v>18226</v>
+      </c>
+      <c r="C26">
+        <v>18326</v>
+      </c>
+      <c r="D26">
+        <v>18426</v>
+      </c>
+      <c r="E26">
+        <v>18526</v>
+      </c>
+      <c r="F26">
+        <v>19126</v>
+      </c>
+      <c r="G26">
+        <v>19226</v>
+      </c>
+      <c r="H26">
+        <v>19326</v>
+      </c>
+      <c r="I26">
         <v>19426</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J26">
+        <v>19526</v>
+      </c>
+      <c r="K26">
+        <v>20126</v>
+      </c>
+      <c r="L26">
+        <v>20226</v>
+      </c>
+      <c r="M26">
+        <v>20326</v>
+      </c>
+      <c r="N26">
+        <v>20426</v>
+      </c>
+      <c r="O26">
+        <v>20526</v>
+      </c>
+      <c r="P26">
+        <v>21126</v>
+      </c>
+      <c r="Q26">
+        <v>21226</v>
+      </c>
+      <c r="R26">
+        <v>21326</v>
+      </c>
+      <c r="S26">
+        <v>21426</v>
+      </c>
+      <c r="T26">
+        <v>21526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27">
+        <v>18127</v>
+      </c>
+      <c r="B27">
+        <v>18227</v>
+      </c>
+      <c r="C27">
+        <v>18327</v>
+      </c>
+      <c r="D27">
+        <v>18427</v>
+      </c>
+      <c r="E27">
+        <v>18527</v>
+      </c>
+      <c r="F27">
+        <v>19127</v>
+      </c>
+      <c r="G27">
+        <v>19227</v>
+      </c>
+      <c r="H27">
+        <v>19327</v>
+      </c>
+      <c r="I27">
         <v>19427</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J27">
+        <v>19527</v>
+      </c>
+      <c r="K27">
+        <v>20127</v>
+      </c>
+      <c r="L27">
+        <v>20227</v>
+      </c>
+      <c r="M27">
+        <v>20327</v>
+      </c>
+      <c r="N27">
+        <v>20427</v>
+      </c>
+      <c r="O27">
+        <v>20527</v>
+      </c>
+      <c r="P27">
+        <v>21127</v>
+      </c>
+      <c r="Q27">
+        <v>21227</v>
+      </c>
+      <c r="R27">
+        <v>21327</v>
+      </c>
+      <c r="S27">
+        <v>21427</v>
+      </c>
+      <c r="T27">
+        <v>21527</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28">
+        <v>18128</v>
+      </c>
+      <c r="B28">
+        <v>18228</v>
+      </c>
+      <c r="C28">
+        <v>18328</v>
+      </c>
+      <c r="D28">
+        <v>18428</v>
+      </c>
+      <c r="E28">
+        <v>18528</v>
+      </c>
+      <c r="F28">
+        <v>19128</v>
+      </c>
+      <c r="G28">
+        <v>19228</v>
+      </c>
+      <c r="H28">
+        <v>19328</v>
+      </c>
+      <c r="I28">
         <v>19428</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J28">
+        <v>19528</v>
+      </c>
+      <c r="K28">
+        <v>20128</v>
+      </c>
+      <c r="L28">
+        <v>20228</v>
+      </c>
+      <c r="M28">
+        <v>20328</v>
+      </c>
+      <c r="N28">
+        <v>20428</v>
+      </c>
+      <c r="O28">
+        <v>20528</v>
+      </c>
+      <c r="P28">
+        <v>21128</v>
+      </c>
+      <c r="Q28">
+        <v>21228</v>
+      </c>
+      <c r="R28">
+        <v>21328</v>
+      </c>
+      <c r="S28">
+        <v>21428</v>
+      </c>
+      <c r="T28">
+        <v>21528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29">
+        <v>18129</v>
+      </c>
+      <c r="B29">
+        <v>18229</v>
+      </c>
+      <c r="C29">
+        <v>18329</v>
+      </c>
+      <c r="D29">
+        <v>18429</v>
+      </c>
+      <c r="E29">
+        <v>18529</v>
+      </c>
+      <c r="F29">
+        <v>19129</v>
+      </c>
+      <c r="G29">
+        <v>19229</v>
+      </c>
+      <c r="H29">
+        <v>19329</v>
+      </c>
+      <c r="I29">
         <v>19429</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J29">
+        <v>19529</v>
+      </c>
+      <c r="K29">
+        <v>20129</v>
+      </c>
+      <c r="L29">
+        <v>20229</v>
+      </c>
+      <c r="M29">
+        <v>20329</v>
+      </c>
+      <c r="N29">
+        <v>20429</v>
+      </c>
+      <c r="O29">
+        <v>20529</v>
+      </c>
+      <c r="P29">
+        <v>21129</v>
+      </c>
+      <c r="Q29">
+        <v>21229</v>
+      </c>
+      <c r="R29">
+        <v>21329</v>
+      </c>
+      <c r="S29">
+        <v>21429</v>
+      </c>
+      <c r="T29">
+        <v>21529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30">
+        <v>18130</v>
+      </c>
+      <c r="B30">
+        <v>18230</v>
+      </c>
+      <c r="C30">
+        <v>18330</v>
+      </c>
+      <c r="D30">
+        <v>18430</v>
+      </c>
+      <c r="E30">
+        <v>18530</v>
+      </c>
+      <c r="F30">
+        <v>19130</v>
+      </c>
+      <c r="G30">
+        <v>19230</v>
+      </c>
+      <c r="H30">
+        <v>19330</v>
+      </c>
+      <c r="I30">
         <v>19430</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J30">
+        <v>19530</v>
+      </c>
+      <c r="K30">
+        <v>20130</v>
+      </c>
+      <c r="L30">
+        <v>20230</v>
+      </c>
+      <c r="M30">
+        <v>20330</v>
+      </c>
+      <c r="N30">
+        <v>20430</v>
+      </c>
+      <c r="O30">
+        <v>20530</v>
+      </c>
+      <c r="P30">
+        <v>21130</v>
+      </c>
+      <c r="Q30">
+        <v>21230</v>
+      </c>
+      <c r="R30">
+        <v>21330</v>
+      </c>
+      <c r="S30">
+        <v>21430</v>
+      </c>
+      <c r="T30">
+        <v>21530</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31">
+        <v>18131</v>
+      </c>
+      <c r="B31">
+        <v>18231</v>
+      </c>
+      <c r="C31">
+        <v>18331</v>
+      </c>
+      <c r="D31">
+        <v>18431</v>
+      </c>
+      <c r="E31">
+        <v>18531</v>
+      </c>
+      <c r="F31">
+        <v>19131</v>
+      </c>
+      <c r="G31">
+        <v>19231</v>
+      </c>
+      <c r="H31">
+        <v>19331</v>
+      </c>
+      <c r="I31">
         <v>19431</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J31">
+        <v>19531</v>
+      </c>
+      <c r="K31">
+        <v>20131</v>
+      </c>
+      <c r="L31">
+        <v>20231</v>
+      </c>
+      <c r="M31">
+        <v>20331</v>
+      </c>
+      <c r="N31">
+        <v>20431</v>
+      </c>
+      <c r="O31">
+        <v>20531</v>
+      </c>
+      <c r="P31">
+        <v>21131</v>
+      </c>
+      <c r="Q31">
+        <v>21231</v>
+      </c>
+      <c r="R31">
+        <v>21331</v>
+      </c>
+      <c r="S31">
+        <v>21431</v>
+      </c>
+      <c r="T31">
+        <v>21531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32">
+        <v>18132</v>
+      </c>
+      <c r="B32">
+        <v>18232</v>
+      </c>
+      <c r="C32">
+        <v>18332</v>
+      </c>
+      <c r="D32">
+        <v>18432</v>
+      </c>
+      <c r="E32">
+        <v>18532</v>
+      </c>
+      <c r="F32">
+        <v>19132</v>
+      </c>
+      <c r="G32">
+        <v>19232</v>
+      </c>
+      <c r="H32">
+        <v>19332</v>
+      </c>
+      <c r="I32">
         <v>19432</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J32">
+        <v>19532</v>
+      </c>
+      <c r="K32">
+        <v>20132</v>
+      </c>
+      <c r="L32">
+        <v>20232</v>
+      </c>
+      <c r="M32">
+        <v>20332</v>
+      </c>
+      <c r="N32">
+        <v>20432</v>
+      </c>
+      <c r="O32">
+        <v>20532</v>
+      </c>
+      <c r="P32">
+        <v>21132</v>
+      </c>
+      <c r="Q32">
+        <v>21232</v>
+      </c>
+      <c r="R32">
+        <v>21332</v>
+      </c>
+      <c r="S32">
+        <v>21432</v>
+      </c>
+      <c r="T32">
+        <v>21532</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A33">
+        <v>18133</v>
+      </c>
+      <c r="B33">
+        <v>18233</v>
+      </c>
+      <c r="C33">
+        <v>18333</v>
+      </c>
+      <c r="D33">
+        <v>18433</v>
+      </c>
+      <c r="E33">
+        <v>18533</v>
+      </c>
+      <c r="F33">
+        <v>19133</v>
+      </c>
+      <c r="G33">
+        <v>19233</v>
+      </c>
+      <c r="H33">
+        <v>19333</v>
+      </c>
+      <c r="I33">
         <v>19433</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J33">
+        <v>19533</v>
+      </c>
+      <c r="K33">
+        <v>20133</v>
+      </c>
+      <c r="L33">
+        <v>20233</v>
+      </c>
+      <c r="M33">
+        <v>20333</v>
+      </c>
+      <c r="N33">
+        <v>20433</v>
+      </c>
+      <c r="O33">
+        <v>20533</v>
+      </c>
+      <c r="P33">
+        <v>21133</v>
+      </c>
+      <c r="Q33">
+        <v>21233</v>
+      </c>
+      <c r="R33">
+        <v>21333</v>
+      </c>
+      <c r="S33">
+        <v>21433</v>
+      </c>
+      <c r="T33">
+        <v>21533</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A34">
+        <v>18134</v>
+      </c>
+      <c r="B34">
+        <v>18234</v>
+      </c>
+      <c r="C34">
+        <v>18334</v>
+      </c>
+      <c r="D34">
+        <v>18434</v>
+      </c>
+      <c r="E34">
+        <v>18534</v>
+      </c>
+      <c r="F34">
+        <v>19134</v>
+      </c>
+      <c r="G34">
+        <v>19234</v>
+      </c>
+      <c r="H34">
+        <v>19334</v>
+      </c>
+      <c r="I34">
         <v>19434</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J34">
+        <v>19534</v>
+      </c>
+      <c r="K34">
+        <v>20134</v>
+      </c>
+      <c r="L34">
+        <v>20234</v>
+      </c>
+      <c r="M34">
+        <v>20334</v>
+      </c>
+      <c r="N34">
+        <v>20434</v>
+      </c>
+      <c r="O34">
+        <v>20534</v>
+      </c>
+      <c r="P34">
+        <v>21134</v>
+      </c>
+      <c r="Q34">
+        <v>21234</v>
+      </c>
+      <c r="R34">
+        <v>21334</v>
+      </c>
+      <c r="S34">
+        <v>21434</v>
+      </c>
+      <c r="T34">
+        <v>21534</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35">
+        <v>18135</v>
+      </c>
+      <c r="B35">
+        <v>18235</v>
+      </c>
+      <c r="C35">
+        <v>18335</v>
+      </c>
+      <c r="D35">
+        <v>18435</v>
+      </c>
+      <c r="E35">
+        <v>18535</v>
+      </c>
+      <c r="F35">
+        <v>19135</v>
+      </c>
+      <c r="G35">
+        <v>19235</v>
+      </c>
+      <c r="H35">
+        <v>19335</v>
+      </c>
+      <c r="I35">
         <v>19435</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J35">
+        <v>19535</v>
+      </c>
+      <c r="K35">
+        <v>20135</v>
+      </c>
+      <c r="L35">
+        <v>20235</v>
+      </c>
+      <c r="M35">
+        <v>20335</v>
+      </c>
+      <c r="N35">
+        <v>20435</v>
+      </c>
+      <c r="O35">
+        <v>20535</v>
+      </c>
+      <c r="P35">
+        <v>21135</v>
+      </c>
+      <c r="Q35">
+        <v>21235</v>
+      </c>
+      <c r="R35">
+        <v>21335</v>
+      </c>
+      <c r="S35">
+        <v>21435</v>
+      </c>
+      <c r="T35">
+        <v>21535</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36">
+        <v>18136</v>
+      </c>
+      <c r="B36">
+        <v>18236</v>
+      </c>
+      <c r="C36">
+        <v>18336</v>
+      </c>
+      <c r="D36">
+        <v>18436</v>
+      </c>
+      <c r="E36">
+        <v>18536</v>
+      </c>
+      <c r="F36">
+        <v>19136</v>
+      </c>
+      <c r="G36">
+        <v>19236</v>
+      </c>
+      <c r="H36">
+        <v>19336</v>
+      </c>
+      <c r="I36">
         <v>19436</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J36">
+        <v>19536</v>
+      </c>
+      <c r="K36">
+        <v>20136</v>
+      </c>
+      <c r="L36">
+        <v>20236</v>
+      </c>
+      <c r="M36">
+        <v>20336</v>
+      </c>
+      <c r="N36">
+        <v>20436</v>
+      </c>
+      <c r="O36">
+        <v>20536</v>
+      </c>
+      <c r="P36">
+        <v>21136</v>
+      </c>
+      <c r="Q36">
+        <v>21236</v>
+      </c>
+      <c r="R36">
+        <v>21336</v>
+      </c>
+      <c r="S36">
+        <v>21436</v>
+      </c>
+      <c r="T36">
+        <v>21536</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A37">
+        <v>18137</v>
+      </c>
+      <c r="B37">
+        <v>18237</v>
+      </c>
+      <c r="C37">
+        <v>18337</v>
+      </c>
+      <c r="D37">
+        <v>18437</v>
+      </c>
+      <c r="E37">
+        <v>18537</v>
+      </c>
+      <c r="F37">
+        <v>19137</v>
+      </c>
+      <c r="G37">
+        <v>19237</v>
+      </c>
+      <c r="H37">
+        <v>19337</v>
+      </c>
+      <c r="I37">
         <v>19437</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J37">
+        <v>19537</v>
+      </c>
+      <c r="K37">
+        <v>20137</v>
+      </c>
+      <c r="L37">
+        <v>20237</v>
+      </c>
+      <c r="M37">
+        <v>20337</v>
+      </c>
+      <c r="N37">
+        <v>20437</v>
+      </c>
+      <c r="O37">
+        <v>20537</v>
+      </c>
+      <c r="P37">
+        <v>21137</v>
+      </c>
+      <c r="Q37">
+        <v>21237</v>
+      </c>
+      <c r="R37">
+        <v>21337</v>
+      </c>
+      <c r="S37">
+        <v>21437</v>
+      </c>
+      <c r="T37">
+        <v>21537</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38">
+        <v>18138</v>
+      </c>
+      <c r="B38">
+        <v>18238</v>
+      </c>
+      <c r="C38">
+        <v>18338</v>
+      </c>
+      <c r="D38">
+        <v>18438</v>
+      </c>
+      <c r="E38">
+        <v>18538</v>
+      </c>
+      <c r="F38">
+        <v>19138</v>
+      </c>
+      <c r="G38">
+        <v>19238</v>
+      </c>
+      <c r="H38">
+        <v>19338</v>
+      </c>
+      <c r="I38">
         <v>19438</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J38">
+        <v>19538</v>
+      </c>
+      <c r="K38">
+        <v>20138</v>
+      </c>
+      <c r="L38">
+        <v>20238</v>
+      </c>
+      <c r="M38">
+        <v>20338</v>
+      </c>
+      <c r="N38">
+        <v>20438</v>
+      </c>
+      <c r="O38">
+        <v>20538</v>
+      </c>
+      <c r="P38">
+        <v>21138</v>
+      </c>
+      <c r="Q38">
+        <v>21238</v>
+      </c>
+      <c r="R38">
+        <v>21338</v>
+      </c>
+      <c r="S38">
+        <v>21438</v>
+      </c>
+      <c r="T38">
+        <v>21538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39">
+        <v>18139</v>
+      </c>
+      <c r="B39">
+        <v>18239</v>
+      </c>
+      <c r="C39">
+        <v>18339</v>
+      </c>
+      <c r="D39">
+        <v>18439</v>
+      </c>
+      <c r="E39">
+        <v>18539</v>
+      </c>
+      <c r="F39">
+        <v>19139</v>
+      </c>
+      <c r="G39">
+        <v>19239</v>
+      </c>
+      <c r="H39">
+        <v>19339</v>
+      </c>
+      <c r="I39">
         <v>19439</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J39">
+        <v>19539</v>
+      </c>
+      <c r="K39">
+        <v>20139</v>
+      </c>
+      <c r="L39">
+        <v>20239</v>
+      </c>
+      <c r="M39">
+        <v>20339</v>
+      </c>
+      <c r="N39">
+        <v>20439</v>
+      </c>
+      <c r="O39">
+        <v>20539</v>
+      </c>
+      <c r="P39">
+        <v>21139</v>
+      </c>
+      <c r="Q39">
+        <v>21239</v>
+      </c>
+      <c r="R39">
+        <v>21339</v>
+      </c>
+      <c r="S39">
+        <v>21439</v>
+      </c>
+      <c r="T39">
+        <v>21539</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A40">
+        <v>18140</v>
+      </c>
+      <c r="B40">
+        <v>18240</v>
+      </c>
+      <c r="C40">
+        <v>18340</v>
+      </c>
+      <c r="D40">
+        <v>18440</v>
+      </c>
+      <c r="E40">
+        <v>18540</v>
+      </c>
+      <c r="F40">
+        <v>19140</v>
+      </c>
+      <c r="G40">
+        <v>19240</v>
+      </c>
+      <c r="H40">
+        <v>19340</v>
+      </c>
+      <c r="I40">
         <v>19440</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J40">
+        <v>19540</v>
+      </c>
+      <c r="K40">
+        <v>20140</v>
+      </c>
+      <c r="L40">
+        <v>20240</v>
+      </c>
+      <c r="M40">
+        <v>20340</v>
+      </c>
+      <c r="N40">
+        <v>20440</v>
+      </c>
+      <c r="O40">
+        <v>20540</v>
+      </c>
+      <c r="P40">
+        <v>21140</v>
+      </c>
+      <c r="Q40">
+        <v>21240</v>
+      </c>
+      <c r="R40">
+        <v>21340</v>
+      </c>
+      <c r="S40">
+        <v>21440</v>
+      </c>
+      <c r="T40">
+        <v>21540</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>19101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+        <v>22001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>19102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+        <v>22002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>19103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+        <v>22003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>19104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+        <v>22004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>19105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+        <v>22005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>19106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+        <v>22006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>19107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+        <v>22007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>19108</v>
+        <v>22008</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>19109</v>
+        <v>22009</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>19110</v>
+        <v>22010</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>19111</v>
+        <v>22011</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>19112</v>
+        <v>22012</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>19113</v>
+        <v>22013</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>19114</v>
+        <v>22014</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>19115</v>
+        <v>22015</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>19116</v>
+        <v>22016</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>19117</v>
+        <v>22017</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>19118</v>
+        <v>22018</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>19119</v>
+        <v>22019</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>19120</v>
+        <v>22020</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>19121</v>
+        <v>22021</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>19122</v>
+        <v>22022</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>19123</v>
+        <v>22023</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>19124</v>
+        <v>22024</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>19125</v>
+        <v>22025</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>19126</v>
+        <v>22026</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>19127</v>
+        <v>22027</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>19128</v>
+        <v>22028</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>19129</v>
+        <v>22029</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>19130</v>
+        <v>22030</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>19131</v>
+        <v>22031</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>19132</v>
+        <v>22032</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>19133</v>
+        <v>22033</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>19134</v>
+        <v>22034</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>19135</v>
+        <v>22035</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>20201</v>
+        <v>22036</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>20202</v>
+        <v>22037</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>20203</v>
+        <v>22038</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>20204</v>
+        <v>22039</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>20205</v>
+        <v>22040</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>20206</v>
+        <v>22041</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>20207</v>
+        <v>22042</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>20208</v>
+        <v>22043</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>20209</v>
+        <v>22044</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>20210</v>
+        <v>22045</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>20211</v>
+        <v>22046</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>20212</v>
+        <v>22047</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>20213</v>
+        <v>22048</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>20214</v>
+        <v>22049</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>20215</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>20216</v>
+        <v>22051</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>20217</v>
+        <v>22052</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>20218</v>
+        <v>22053</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>20219</v>
+        <v>22054</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>20220</v>
+        <v>22055</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>20221</v>
+        <v>22056</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>20222</v>
+        <v>22057</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>20223</v>
+        <v>22058</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>22001</v>
+        <v>22059</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>22002</v>
+        <v>22060</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>22003</v>
+        <v>22061</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>22004</v>
+        <v>22062</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>22005</v>
+        <v>22063</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>22006</v>
+        <v>22064</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>22007</v>
+        <v>22065</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>22008</v>
+        <v>22066</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>22009</v>
+        <v>22067</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>22010</v>
+        <v>22068</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>22011</v>
+        <v>22069</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>22012</v>
+        <v>22070</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>22013</v>
+        <v>22071</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>22014</v>
+        <v>22072</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>22015</v>
+        <v>22073</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>22016</v>
+        <v>22074</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>22017</v>
+        <v>22075</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>22018</v>
+        <v>22076</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>22019</v>
+        <v>22077</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>22020</v>
+        <v>22078</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>22021</v>
+        <v>22079</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>22022</v>
+        <v>22080</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>22023</v>
+        <v>22081</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>22024</v>
+        <v>22082</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>22025</v>
+        <v>22083</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>22026</v>
+        <v>22084</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>22027</v>
+        <v>22085</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>22028</v>
+        <v>22086</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>22029</v>
+        <v>22087</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>22030</v>
+        <v>22088</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>22031</v>
+        <v>22089</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>22032</v>
+        <v>22090</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>22033</v>
+        <v>22091</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>22092</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>22093</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>22094</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>22095</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>22096</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>22097</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>22098</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>22099</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>22100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>22101</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>22102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>22103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>22104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>22105</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>22106</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>22107</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>22108</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>22109</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>22110</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>22111</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>22112</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>22113</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>22114</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>22115</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>22116</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>22117</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>22118</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>22119</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>22120</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>22121</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>22122</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>22123</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>22124</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>22125</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>22126</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>22127</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>22128</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>22129</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>22130</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>22131</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>22132</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <v>22133</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <v>22134</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <v>22135</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <v>22136</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <v>22137</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A178">
+        <v>22138</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A179">
+        <v>22139</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A180">
+        <v>22140</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A181">
+        <v>22141</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A182">
+        <v>22142</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A183">
+        <v>22143</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A184">
+        <v>22144</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A185">
+        <v>22145</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A186">
+        <v>22146</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <v>22147</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <v>22148</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>22149</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <v>22150</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>22151</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>22152</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>22153</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <v>22154</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <v>22155</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <v>22156</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <v>22157</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <v>22158</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <v>22159</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <v>22160</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A201">
+        <v>22161</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A202">
+        <v>22162</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A203">
+        <v>22163</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A204">
+        <v>22164</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A205">
+        <v>22165</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A206">
+        <v>22166</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A207">
+        <v>22167</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A208">
+        <v>22168</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A209">
+        <v>22169</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A210">
+        <v>22170</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A211">
+        <v>22171</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A212">
+        <v>22172</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A213">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A214">
+        <v>22174</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A215">
+        <v>22175</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A216">
+        <v>22176</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A217">
+        <v>22177</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A218">
+        <v>22178</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A219">
+        <v>22179</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A220">
+        <v>22180</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A221">
+        <v>22181</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A222">
+        <v>22182</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A223">
+        <v>22183</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A224">
+        <v>22184</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A225">
+        <v>22185</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A226">
+        <v>22186</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A227">
+        <v>22187</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A228">
+        <v>22188</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A229">
+        <v>22189</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A230">
+        <v>22190</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A231">
+        <v>22191</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A232">
+        <v>22192</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A233">
+        <v>22193</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A234">
+        <v>22194</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A235">
+        <v>22195</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A236">
+        <v>22196</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A237">
+        <v>22197</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A238">
+        <v>22198</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A239">
+        <v>22199</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A240">
+        <v>22200</v>
       </c>
     </row>
   </sheetData>
